--- a/medicine/Pharmacie/Fructo-oligosaccharide/Fructo-oligosaccharide.xlsx
+++ b/medicine/Pharmacie/Fructo-oligosaccharide/Fructo-oligosaccharide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fructo-oligosaccharides, parfois appelés oligofructoses, sont des fructanes d'oligosaccharides. Ils sont préparés :
 par hydrolyse de l'inuline (polymère de fructose) ;
 à partir du saccharose, par l'action d'une enzyme, la fructosyltransférase.
 Ils sont utilisés pour leur propriétés de prébiotiques. Ils facilitent le développement des probiotiques, qui ont un effet préventif du cancer colorectal, anti-infectieux intestinal, immunostimulant et hypocholestérolémiant.
 De plus, ils procurent une sensation de matière grasse et un goût de sucre sans les aspects négatifs.
-Les suppléments de fibres solubles doivent être pris avec prudence car une consommation excessive entraîne un dysfonctionnement intestinal et induit même une inflammation intestinale[1].
+Les suppléments de fibres solubles doivent être pris avec prudence car une consommation excessive entraîne un dysfonctionnement intestinal et induit même une inflammation intestinale.
 </t>
         </is>
       </c>
